--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>3860.112448044789</v>
+        <v>4703.142409112741</v>
       </c>
       <c r="R2">
-        <v>34741.0120324031</v>
+        <v>42328.28168201467</v>
       </c>
       <c r="S2">
-        <v>0.00548767946807664</v>
+        <v>0.007640770075026505</v>
       </c>
       <c r="T2">
-        <v>0.005487679468076642</v>
+        <v>0.007640770075026505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>4800.39698993151</v>
+        <v>4906.126048161023</v>
       </c>
       <c r="R3">
-        <v>43203.57290938359</v>
+        <v>44155.1344334492</v>
       </c>
       <c r="S3">
-        <v>0.006824422955245059</v>
+        <v>0.007970539233611835</v>
       </c>
       <c r="T3">
-        <v>0.006824422955245061</v>
+        <v>0.007970539233611835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>3596.768102280736</v>
+        <v>2299.134608030916</v>
       </c>
       <c r="R4">
-        <v>32370.91292052662</v>
+        <v>20692.21147227824</v>
       </c>
       <c r="S4">
-        <v>0.005113299348654093</v>
+        <v>0.003735196042004286</v>
       </c>
       <c r="T4">
-        <v>0.005113299348654094</v>
+        <v>0.003735196042004286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>582.4437940570813</v>
+        <v>595.903885897757</v>
       </c>
       <c r="R5">
-        <v>5241.994146513732</v>
+        <v>5363.134973079813</v>
       </c>
       <c r="S5">
-        <v>0.0008280237669176362</v>
+        <v>0.0009681111441867981</v>
       </c>
       <c r="T5">
-        <v>0.0008280237669176364</v>
+        <v>0.0009681111441867981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>3093.855326248253</v>
+        <v>1699.398851244717</v>
       </c>
       <c r="R6">
-        <v>27844.69793623428</v>
+        <v>15294.58966120245</v>
       </c>
       <c r="S6">
-        <v>0.004398339835838663</v>
+        <v>0.002760859603775988</v>
       </c>
       <c r="T6">
-        <v>0.004398339835838664</v>
+        <v>0.002760859603775989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>165525.2262502629</v>
+        <v>197328.9550180671</v>
       </c>
       <c r="R7">
-        <v>1489727.036252366</v>
+        <v>1775960.595162604</v>
       </c>
       <c r="S7">
-        <v>0.2353168198512979</v>
+        <v>0.320582504905</v>
       </c>
       <c r="T7">
-        <v>0.235316819851298</v>
+        <v>0.320582504905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>205845.5054209536</v>
+        <v>205845.5054209537</v>
       </c>
       <c r="R8">
         <v>1852609.548788583</v>
       </c>
       <c r="S8">
-        <v>0.2926376287992839</v>
+        <v>0.3344185740265188</v>
       </c>
       <c r="T8">
-        <v>0.292637628799284</v>
+        <v>0.3344185740265188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>154232.7747994246</v>
+        <v>96464.40404814424</v>
       </c>
       <c r="R9">
-        <v>1388094.973194821</v>
+        <v>868179.6364332982</v>
       </c>
       <c r="S9">
-        <v>0.2192630507435077</v>
+        <v>0.1567169920962216</v>
       </c>
       <c r="T9">
-        <v>0.2192630507435078</v>
+        <v>0.1567169920962216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>24975.73376086304</v>
+        <v>25002.23911306002</v>
       </c>
       <c r="R10">
-        <v>224781.6038477673</v>
+        <v>225020.1520175402</v>
       </c>
       <c r="S10">
-        <v>0.03550643231366465</v>
+        <v>0.04061887644600701</v>
       </c>
       <c r="T10">
-        <v>0.03550643231366467</v>
+        <v>0.04061887644600701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>132667.4053555657</v>
+        <v>71301.39177271618</v>
       </c>
       <c r="R11">
-        <v>1194006.648200091</v>
+        <v>641712.5259544456</v>
       </c>
       <c r="S11">
-        <v>0.1886049192223665</v>
+        <v>0.1158369220351735</v>
       </c>
       <c r="T11">
-        <v>0.1886049192223666</v>
+        <v>0.1158369220351735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>5.759331915365333</v>
+        <v>94.16021314158044</v>
       </c>
       <c r="R12">
-        <v>51.833987238288</v>
+        <v>847.441918274224</v>
       </c>
       <c r="S12">
-        <v>8.187680521534416E-06</v>
+        <v>0.0001529735815433308</v>
       </c>
       <c r="T12">
-        <v>8.18768052153442E-06</v>
+        <v>0.0001529735815433308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>7.16224720462222</v>
+        <v>98.22408811164446</v>
       </c>
       <c r="R13">
-        <v>64.46022484159998</v>
+        <v>884.0167930048002</v>
       </c>
       <c r="S13">
-        <v>1.018211709091606E-05</v>
+        <v>0.0001595757916315795</v>
       </c>
       <c r="T13">
-        <v>1.018211709091606E-05</v>
+        <v>0.0001595757916315795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>5.366419139972445</v>
+        <v>46.03028909222756</v>
       </c>
       <c r="R14">
-        <v>48.297772259752</v>
+        <v>414.272601830048</v>
       </c>
       <c r="S14">
-        <v>7.629101102077167E-06</v>
+        <v>7.478124726975076E-05</v>
       </c>
       <c r="T14">
-        <v>7.629101102077168E-06</v>
+        <v>7.478124726975078E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.8690128013546665</v>
+        <v>11.930414184208</v>
       </c>
       <c r="R15">
-        <v>7.821115212192</v>
+        <v>107.373727657872</v>
       </c>
       <c r="S15">
-        <v>1.235420929228442E-06</v>
+        <v>1.938226482462931E-05</v>
       </c>
       <c r="T15">
-        <v>1.235420929228442E-06</v>
+        <v>1.938226482462931E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>4.61606752699911</v>
+        <v>34.023158162448</v>
       </c>
       <c r="R16">
-        <v>41.544607742992</v>
+        <v>306.208423462032</v>
       </c>
       <c r="S16">
-        <v>6.562373332932091E-06</v>
+        <v>5.527434768758556E-05</v>
       </c>
       <c r="T16">
-        <v>6.562373332932093E-06</v>
+        <v>5.527434768758557E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>1009.126122209299</v>
+        <v>1591.863288316244</v>
       </c>
       <c r="R17">
-        <v>9082.135099883693</v>
+        <v>14326.7695948462</v>
       </c>
       <c r="S17">
-        <v>0.001434611238942725</v>
+        <v>0.002586156301228105</v>
       </c>
       <c r="T17">
-        <v>0.001434611238942726</v>
+        <v>0.002586156301228105</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>1254.939089136755</v>
+        <v>1660.566758256623</v>
       </c>
       <c r="R18">
-        <v>11294.4518022308</v>
+        <v>14945.1008243096</v>
       </c>
       <c r="S18">
-        <v>0.001784068097972327</v>
+        <v>0.00269777261464311</v>
       </c>
       <c r="T18">
-        <v>0.001784068097972328</v>
+        <v>0.00269777261464311</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>940.28158412305</v>
+        <v>778.1835332756218</v>
       </c>
       <c r="R19">
-        <v>8462.534257107451</v>
+        <v>7003.651799480596</v>
       </c>
       <c r="S19">
-        <v>0.001336739282301542</v>
+        <v>0.001264244400171688</v>
       </c>
       <c r="T19">
-        <v>0.001336739282301543</v>
+        <v>0.001264244400171688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>152.2647993323106</v>
+        <v>201.694407017666</v>
       </c>
       <c r="R20">
-        <v>1370.383193990796</v>
+        <v>1815.249663158994</v>
       </c>
       <c r="S20">
-        <v>0.0002164653036027399</v>
+        <v>0.0003276746599156308</v>
       </c>
       <c r="T20">
-        <v>0.00021646530360274</v>
+        <v>0.0003276746599156308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>808.8081034102717</v>
+        <v>575.1921605141461</v>
       </c>
       <c r="R21">
-        <v>7279.272930692445</v>
+        <v>5176.729444627314</v>
       </c>
       <c r="S21">
-        <v>0.001149831690770231</v>
+        <v>0.0009344626773220416</v>
       </c>
       <c r="T21">
-        <v>0.001149831690770232</v>
+        <v>0.0009344626773220417</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H22">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I22">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J22">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>10.884394132454</v>
+        <v>97.49652668231467</v>
       </c>
       <c r="R22">
-        <v>97.95954719208599</v>
+        <v>877.468740140832</v>
       </c>
       <c r="S22">
-        <v>1.547365964257749E-05</v>
+        <v>0.0001583937883849427</v>
       </c>
       <c r="T22">
-        <v>1.54736596425775E-05</v>
+        <v>0.0001583937883849427</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H23">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I23">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J23">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>13.53572299613333</v>
+        <v>101.7043941162667</v>
       </c>
       <c r="R23">
-        <v>121.8215069652</v>
+        <v>915.3395470464002</v>
       </c>
       <c r="S23">
-        <v>1.924288739543782E-05</v>
+        <v>0.0001652299300052183</v>
       </c>
       <c r="T23">
-        <v>1.924288739543783E-05</v>
+        <v>0.0001652299300052184</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H24">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I24">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J24">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>10.14183968865767</v>
+        <v>47.66124840782933</v>
       </c>
       <c r="R24">
-        <v>91.276557197919</v>
+        <v>428.951235670464</v>
       </c>
       <c r="S24">
-        <v>1.441801661922096E-05</v>
+        <v>7.743091935029207E-05</v>
       </c>
       <c r="T24">
-        <v>1.441801661922096E-05</v>
+        <v>7.743091935029207E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H25">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I25">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J25">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>1.642322056636</v>
+        <v>12.353136277344</v>
       </c>
       <c r="R25">
-        <v>14.780898509724</v>
+        <v>111.178226496096</v>
       </c>
       <c r="S25">
-        <v>2.334786136796553E-06</v>
+        <v>2.006902317432926E-05</v>
       </c>
       <c r="T25">
-        <v>2.334786136796554E-06</v>
+        <v>2.006902317432926E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H26">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I26">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J26">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>8.723771965952665</v>
+        <v>35.228677133664</v>
       </c>
       <c r="R26">
-        <v>78.51394769357398</v>
+        <v>317.058094202976</v>
       </c>
       <c r="S26">
-        <v>1.240203878671712E-05</v>
+        <v>5.723284532148596E-05</v>
       </c>
       <c r="T26">
-        <v>1.240203878671712E-05</v>
+        <v>5.723284532148597E-05</v>
       </c>
     </row>
   </sheetData>
